--- a/Data Analyst/Report/grade control.xlsx
+++ b/Data Analyst/Report/grade control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R66"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4249,13 +4249,13 @@
         <v>2454.35</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>19.33</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2365</v>
+        <v>2991.11</v>
       </c>
       <c r="M64" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="N64" t="n">
-        <v>19.35</v>
+        <v>19.85</v>
       </c>
       <c r="O64" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4366,16 +4366,16 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2585</v>
+        <v>2828.46</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>20.92</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4426,16 +4426,16 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2750</v>
+        <v>3094.99</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>19.91</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -4444,6 +4444,186 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>14</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>46</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>IRNC/ITSS</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3623.98</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N67" t="n">
+        <v>21.88</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>36</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>IRNC</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2381.85</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N68" t="n">
+        <v>23.34</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-08-09</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>11</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>30</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>IRNC</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2255</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
         <v>0</v>
       </c>
     </row>
